--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; is part of [BFO:0000050]; happens during [RO:0002092]</t>
+          <t>has part [BFO:0000051]; bearer of [RO:0000053]; characteristic of  [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; is part of [BFO:0000050]; happens during [RO:0002092]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -672,7 +672,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>environment [ENVO:01000254]; rural area [ENVO:01000772]; urban area [ENVO:00000856]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064];﻿ecosystem [ENVO:01001110];﻿environmental disposition [ENVO:01000452]</t>
+          <t>environment [ENVO:01000254]; rural area [ENVO:01000772]; urban area [ENVO:00000856]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064];﻿ecosystem [ENVO:01001110];﻿environmental disposition [ENVO:01000452]; environmental system [ENVO:01000254]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -672,7 +672,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>environment [ENVO:01000254]; rural area [ENVO:01000772]; urban area [ENVO:00000856]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064];﻿ecosystem [ENVO:01001110];﻿environmental disposition [ENVO:01000452]; environmental system [ENVO:01000254]</t>
+          <t>environment [ENVO:01000254]; rural area [ENVO:01000772]; urban area [ENVO:00000856]; research facility [ENVO:00000469]; park [ENVO:00000562]; forest [ENVO:00000111]; beach [ENVO:00000091]; grassland [ENVO:00000106]; road [ENVO:00000064];﻿ecosystem [ENVO:01001110];﻿environmental disposition [ENVO:01000452]</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>has part [BFO:0000051]; bearer of [RO:0000053]; inheres in [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; is part of [BFO:0000050]; happens during [RO:0002092]</t>
+          <t>has part [BFO:0000051]; bearer of [RO:0000053]; characteristic of [RO:0000052]; located in [RO:0001025]; participates in [RO:0000056]; has participant [RO:0000057]; has disposition [RO:0000091]; has role [RO:0000087]; is part of [BFO:0000050]; happens during [RO:0002092]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]; has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]; independent continuant [BFO:0000004]; specifically dependent continuant [BFO:0000020]; immaterial entity [BFO:0000141]; material entity [BFO:0000040]; spatial region [BFO:0000006]</t>
+          <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]; has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]; independent continuant [BFO:0000004]; specifically dependent continuant [BFO:0000020]; immaterial entity [BFO:0000141]; material entity [BFO:0000040]; spatial region [BFO:0000006]; quality [BFO:0000019]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -844,7 +844,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>arousal [MF:0000012];cognitive representation [MF:0000031];cognitive process [MF:0000008];attending [MF:0000018];belief [MF:0000041];bodily disposition [MF:0000032];bodily quality [MF:0000074];consciousness [MF:0000017];person [MF:0000016]; bodily disposition [MF:0000032]</t>
+          <t>arousal [MF:0000012];cognitive representation [MF:0000031];cognitive process [MF:0000008];attending [MF:0000018];belief [MF:0000041];bodily disposition [MF:0000032];bodily quality [MF:0000074];consciousness [MF:0000017];person [MF:0000016]; bodily disposition [MF:0000032]; representation [MF:0000030]</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -532,7 +532,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]; has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]; independent continuant [BFO:0000004]; specifically dependent continuant [BFO:0000020]; immaterial entity [BFO:0000141]; material entity [BFO:0000040]; spatial region [BFO:0000006]</t>
+          <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]; has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]; independent continuant [BFO:0000004]; specifically dependent continuant [BFO:0000020]; immaterial entity [BFO:0000141]; material entity [BFO:0000040]; spatial region [BFO:0000006]; temporal interval [BFO:0000038]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -484,7 +484,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -512,7 +511,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -532,7 +530,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]; has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]; independent continuant [BFO:0000004]; specifically dependent continuant [BFO:0000020]; immaterial entity [BFO:0000141]; material entity [BFO:0000040]; spatial region [BFO:0000006]</t>
+          <t>specifically dependent continuant [BFO:0000020]; one-dimensional temporal region [BFO:0000038]; spatial region [BFO:0000006]; role [BFO:0000023]; occurrent [BFO:0000003]; immaterial entity [BFO:0000141]; exists at [BFO:0000108]; process [BFO:0000015]; has profile [BFO:0000119]; object [BFO:0000030]; temporal interval [BFO:0000038]; material entity [BFO:0000040]; site [BFO:0000029]; object aggregate [BFO:0000027]; independent continuant [BFO:0000004]; process profile [BFO:0000144]; has occurrent part [BFO:0000117]; process profile of [BFO:0000133]; function [BFO:0000034]; disposition [BFO:0000016]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -540,7 +538,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -568,7 +565,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -596,7 +592,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -624,7 +619,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -652,7 +646,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -680,7 +673,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -708,7 +700,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -736,7 +727,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -796,7 +786,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -824,7 +813,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -852,7 +840,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -880,7 +867,6 @@
           <t>all</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -908,7 +894,6 @@
           <t>minimal</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -530,7 +530,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>process [BFO:0000015]; object aggregate [BFO:0000027]; role [BFO:0000023]; disposition [BFO:0000016]; object [BFO:0000030]; process profile [BFO:0000144]; site [BFO:0000029]; function [BFO:0000034];one-dimensional temporal region [BFO:0000038]; exists at [BFO:0000108]; occurrent [BFO:0000003]; has occurrent part [BFO:0000117]; has profile [BFO:0000119];process profile of [BFO:0000133]; independent continuant [BFO:0000004]; specifically dependent continuant [BFO:0000020]; immaterial entity [BFO:0000141]; material entity [BFO:0000040]; spatial region [BFO:0000006]</t>
+          <t>disposition [BFO:0000016]; immaterial entity [BFO:0000141]; occurrent [BFO:0000003]; one-dimensional temporal region [BFO:0000038]; object [BFO:0000030]; exists at [BFO:0000108]; role [BFO:0000023]; specifically dependent continuant [BFO:0000020]; has occurrent part [BFO:0000117]; process profile [BFO:0000144]; process [BFO:0000015]; has profile [BFO:0000119]; site [BFO:0000029]; spatial region [BFO:0000006]; object aggregate [BFO:0000027]; function [BFO:0000034]; material entity [BFO:0000040]; temporal region [BFO:0000008]; independent continuant [BFO:0000004]; process profile of [BFO:0000133]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -611,7 +611,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>research activity [SEPIO:0000004]</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -981,6 +981,34 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Test</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>asd</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>entity [BFO:0000001]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>socioeconomic status [OPMI:0000121]</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -545,7 +545,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>entity [BFO:0000001]</t>
+          <t>zero-dimensional continuant fiat boundary [BFO:0000147]; entity [BFO:0000001]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -545,7 +545,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>zero-dimensional continuant fiat boundary [BFO:0000147]; entity [BFO:0000001]</t>
+          <t>entity [BFO:0000001]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">

--- a/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
+++ b/Upper Level BCIO/inputs/BCIO_External_Imports.xlsx
@@ -1118,6 +1118,11 @@
 intervention context [GMHO:0000253]; intervention temporal context [GMHO:0000254]</t>
         </is>
       </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>all</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>"GMHO: https://galenos.org.uk/ontologies/GMHO_"</t>
